--- a/Master Data.xlsx
+++ b/Master Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73dc9f36c6aec38/Documents/AdamFolder/Classes/ECE 4772/ECE-4772-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{FE06000A-0F9D-4BD9-9370-2D4F272632C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9BC3838-DAA5-4E91-A116-D895BC02D376}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{FE06000A-0F9D-4BD9-9370-2D4F272632C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F490172-41BA-44CC-8F08-C694F6E96C53}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77E6E6A2-2DC7-41DF-9547-A617FFC04002}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
   <si>
     <t>Test Number</t>
   </si>
@@ -702,6 +702,60 @@
   </si>
   <si>
     <t>N Mulitplier</t>
+  </si>
+  <si>
+    <t>20/2</t>
+  </si>
+  <si>
+    <t>20/3</t>
+  </si>
+  <si>
+    <t>20/4</t>
+  </si>
+  <si>
+    <t>20/5</t>
+  </si>
+  <si>
+    <t>20/6</t>
+  </si>
+  <si>
+    <t>20/7</t>
+  </si>
+  <si>
+    <t>20/8</t>
+  </si>
+  <si>
+    <t>20/9</t>
+  </si>
+  <si>
+    <t>20/10</t>
+  </si>
+  <si>
+    <t>50/2</t>
+  </si>
+  <si>
+    <t>50/3</t>
+  </si>
+  <si>
+    <t>50/4</t>
+  </si>
+  <si>
+    <t>50/5</t>
+  </si>
+  <si>
+    <t>50/6</t>
+  </si>
+  <si>
+    <t>50/7</t>
+  </si>
+  <si>
+    <t>50/8</t>
+  </si>
+  <si>
+    <t>50/9</t>
+  </si>
+  <si>
+    <t>50/10</t>
   </si>
 </sst>
 </file>
@@ -774,7 +828,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -785,6 +839,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -802,6 +862,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCE758-9966-4C85-ADF7-EA55E12162F3}">
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,13 +1179,14 @@
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,20 +1199,21 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="5"/>
+      <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1171,21 +1237,24 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="2"/>
-      <c r="Q2">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>220</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>4</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>3865</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1228,20 +1297,29 @@
       <c r="O3" s="2">
         <v>9</v>
       </c>
-      <c r="Q3">
+      <c r="P3" s="2">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>20</v>
+      </c>
+      <c r="R3" s="2">
+        <v>50</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>220</v>
       </c>
-      <c r="S3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T3">
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
         <v>7639</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1284,20 +1362,29 @@
       <c r="O4" s="2">
         <v>19143</v>
       </c>
-      <c r="Q4">
+      <c r="P4" s="2">
+        <v>19940</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>41966</v>
+      </c>
+      <c r="R4" s="2">
+        <v>96001</v>
+      </c>
+      <c r="S4">
         <v>3</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>9</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>11746</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1340,20 +1427,29 @@
       <c r="O5" s="2">
         <v>17433</v>
       </c>
-      <c r="Q5">
+      <c r="P5" s="2">
+        <v>20901</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>35039</v>
+      </c>
+      <c r="R5" s="2">
+        <v>90204</v>
+      </c>
+      <c r="S5">
         <v>4</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>220</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>11</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>15770</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1396,20 +1492,29 @@
       <c r="O6" s="2">
         <v>16827</v>
       </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="P6" s="2">
+        <v>17781</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>37393</v>
+      </c>
+      <c r="R6" s="2">
+        <v>89397</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
         <v>220</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>13</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>19428</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1452,20 +1557,29 @@
       <c r="O7" s="2">
         <v>16410</v>
       </c>
-      <c r="Q7">
+      <c r="P7" s="2">
+        <v>17770</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>35012</v>
+      </c>
+      <c r="R7" s="2">
+        <v>87202</v>
+      </c>
+      <c r="S7">
         <v>6</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>220</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>15</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>23947</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1508,20 +1622,29 @@
       <c r="O8" s="2">
         <v>17984</v>
       </c>
-      <c r="Q8">
+      <c r="P8" s="2">
+        <v>27005</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>33910</v>
+      </c>
+      <c r="R8" s="2">
+        <v>86452</v>
+      </c>
+      <c r="S8">
         <v>7</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>220</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>17</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>28173</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1564,20 +1687,29 @@
       <c r="O9" s="2">
         <v>16196</v>
       </c>
-      <c r="Q9">
+      <c r="P9" s="2">
+        <v>18525</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>35762</v>
+      </c>
+      <c r="R9" s="2">
+        <v>83834</v>
+      </c>
+      <c r="S9">
         <v>8</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>220</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>19</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>32198</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1620,20 +1752,29 @@
       <c r="O10" s="2">
         <v>15909</v>
       </c>
-      <c r="Q10">
+      <c r="P10" s="2">
+        <v>17473</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>34254</v>
+      </c>
+      <c r="R10" s="2">
+        <v>84872</v>
+      </c>
+      <c r="S10">
         <v>9</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>220</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>21</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>35741</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1676,20 +1817,29 @@
       <c r="O11" s="2">
         <v>16364</v>
       </c>
-      <c r="Q11">
+      <c r="P11" s="2">
+        <v>17920</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>34106</v>
+      </c>
+      <c r="R11" s="2">
+        <v>86780</v>
+      </c>
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>220</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>23</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>38947</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1882,29 @@
       <c r="O12" s="2">
         <v>16276</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P12" s="2">
+        <v>18406</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>34375</v>
+      </c>
+      <c r="R12" s="2">
+        <v>86700</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" t="s">
+        <v>220</v>
+      </c>
+      <c r="U12" t="s">
+        <v>43</v>
+      </c>
+      <c r="V12">
+        <v>99799</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1776,8 +1947,29 @@
       <c r="O13" s="2">
         <v>16250</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P13" s="2">
+        <v>19067</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>34794</v>
+      </c>
+      <c r="R13" s="2">
+        <v>90425</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="T13" t="s">
+        <v>220</v>
+      </c>
+      <c r="U13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V13">
+        <v>198475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +1983,7 @@
         <v>2676</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1805,7 +1997,7 @@
         <v>2760</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1819,7 +2011,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1844,8 +2036,10 @@
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -1888,8 +2082,14 @@
       <c r="O18" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1932,8 +2132,14 @@
       <c r="O19" s="2">
         <v>38947</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="2">
+        <v>99799</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>198475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1947,7 +2153,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1961,7 +2167,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -1975,7 +2181,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -1989,7 +2195,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2003,7 +2209,7 @@
         <v>5654</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2017,7 +2223,7 @@
         <v>3782</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2031,7 +2237,7 @@
         <v>4760</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2044,8 +2250,20 @@
       <c r="D27">
         <v>4213</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27">
+        <v>41966</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2058,8 +2276,20 @@
       <c r="D28">
         <v>3658</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28">
+        <v>35039</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2072,8 +2302,20 @@
       <c r="D29">
         <v>3969</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>223</v>
+      </c>
+      <c r="I29">
+        <v>37393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2086,8 +2328,20 @@
       <c r="D30">
         <v>3902</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I30">
+        <v>35012</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2100,8 +2354,20 @@
       <c r="D31">
         <v>3851</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>225</v>
+      </c>
+      <c r="I31">
+        <v>33910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2114,8 +2380,20 @@
       <c r="D32">
         <v>3575</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>226</v>
+      </c>
+      <c r="I32">
+        <v>35762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2128,8 +2406,20 @@
       <c r="D33">
         <v>4501</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" t="s">
+        <v>227</v>
+      </c>
+      <c r="I33">
+        <v>34254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2142,8 +2432,20 @@
       <c r="D34">
         <v>7220</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>228</v>
+      </c>
+      <c r="I34">
+        <v>34106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2156,8 +2458,20 @@
       <c r="D35">
         <v>6231</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" t="s">
+        <v>229</v>
+      </c>
+      <c r="I35">
+        <v>34375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2170,8 +2484,20 @@
       <c r="D36">
         <v>6011</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>23</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36">
+        <v>34794</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2184,8 +2510,20 @@
       <c r="D37">
         <v>7247</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>28</v>
+      </c>
+      <c r="I37">
+        <v>96001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2198,8 +2536,20 @@
       <c r="D38">
         <v>5884</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>231</v>
+      </c>
+      <c r="I38">
+        <v>90204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2212,8 +2562,20 @@
       <c r="D39">
         <v>6029</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" t="s">
+        <v>232</v>
+      </c>
+      <c r="I39">
+        <v>89397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2226,8 +2588,20 @@
       <c r="D40">
         <v>5813</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>5</v>
+      </c>
+      <c r="H40" t="s">
+        <v>233</v>
+      </c>
+      <c r="I40">
+        <v>87202</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2240,8 +2614,20 @@
       <c r="D41">
         <v>6012</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" t="s">
+        <v>234</v>
+      </c>
+      <c r="I41">
+        <v>86452</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2254,8 +2640,20 @@
       <c r="D42">
         <v>5667</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>235</v>
+      </c>
+      <c r="I42">
+        <v>83834</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2268,8 +2666,20 @@
       <c r="D43">
         <v>5478</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" t="s">
+        <v>236</v>
+      </c>
+      <c r="I43">
+        <v>84872</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2282,8 +2692,20 @@
       <c r="D44">
         <v>9013</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" t="s">
+        <v>237</v>
+      </c>
+      <c r="I44">
+        <v>86780</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2296,8 +2718,20 @@
       <c r="D45">
         <v>7861</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G45" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>238</v>
+      </c>
+      <c r="I45">
+        <v>86700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2310,8 +2744,20 @@
       <c r="D46">
         <v>8385</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46">
+        <v>90425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2325,7 +2771,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3251,8 +3697,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G2:N2"/>
-    <mergeCell ref="F17:O17"/>
+    <mergeCell ref="G2:P2"/>
+    <mergeCell ref="F17:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Master Data.xlsx
+++ b/Master Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73dc9f36c6aec38/Documents/AdamFolder/Classes/ECE 4772/ECE-4772-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{FE06000A-0F9D-4BD9-9370-2D4F272632C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F490172-41BA-44CC-8F08-C694F6E96C53}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{FE06000A-0F9D-4BD9-9370-2D4F272632C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF84AC31-DE43-40A6-B0F5-5731A183AC28}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77E6E6A2-2DC7-41DF-9547-A617FFC04002}"/>
   </bookViews>
@@ -834,17 +834,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1168,7 +1168,7 @@
   <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,8 +1178,10 @@
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
@@ -1199,7 +1201,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="5"/>
+      <c r="R1" s="3"/>
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1227,18 +1229,18 @@
         <v>3540</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2">
@@ -1891,7 +1893,7 @@
       <c r="R12" s="2">
         <v>86700</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="4" t="s">
         <v>43</v>
       </c>
       <c r="T12" t="s">
@@ -1956,7 +1958,7 @@
       <c r="R13" s="2">
         <v>90425</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="4" t="s">
         <v>100</v>
       </c>
       <c r="T13" t="s">
@@ -2024,20 +2026,20 @@
       <c r="D17">
         <v>2519</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">

--- a/Master Data.xlsx
+++ b/Master Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c73dc9f36c6aec38/Documents/AdamFolder/Classes/ECE 4772/ECE-4772-Final-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{FE06000A-0F9D-4BD9-9370-2D4F272632C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF84AC31-DE43-40A6-B0F5-5731A183AC28}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{FE06000A-0F9D-4BD9-9370-2D4F272632C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{256D0513-F9A2-4D0D-AD3B-56D79B1BFF1C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77E6E6A2-2DC7-41DF-9547-A617FFC04002}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77E6E6A2-2DC7-41DF-9547-A617FFC04002}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
   <si>
     <t>Test Number</t>
   </si>
@@ -756,20 +756,19 @@
   </si>
   <si>
     <t>50/10</t>
+  </si>
+  <si>
+    <t>TBB</t>
+  </si>
+  <si>
+    <t>SEQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,18 +785,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -824,31 +817,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -862,6 +849,1277 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TBB</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs SEQ Computation Times</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10702814046978305"/>
+          <c:y val="0.11620957391250815"/>
+          <c:w val="0.86671025615468955"/>
+          <c:h val="0.68972601120374877"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TBB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$25:$L$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2519</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4213</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7247</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9817</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12630</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16410</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17770</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5751-4762-8E4C-2E0D14604744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SEQ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$25:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$25:$M$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3865</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19428</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23947</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28173</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35741</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5751-4762-8E4C-2E0D14604744}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590889679"/>
+        <c:axId val="1031990671"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590889679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>N</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Multiplier</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1031990671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1031990671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (us)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590889679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1F5CA93-9B7C-CEEE-E073-232185FE728C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCE758-9966-4C85-ADF7-EA55E12162F3}">
   <dimension ref="A1:V113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,6 +2438,8 @@
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.140625" customWidth="1"/>
     <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1201,7 +2461,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="3"/>
+      <c r="R1" s="2"/>
       <c r="S1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +2488,7 @@
       <c r="D2">
         <v>3540</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="4"/>
       <c r="G2" s="5" t="s">
         <v>218</v>
       </c>
@@ -1241,8 +2501,8 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
       <c r="S2">
         <v>1</v>
       </c>
@@ -1269,43 +2529,43 @@
       <c r="D3">
         <v>4427</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="4">
         <v>2</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="4">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="4">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
-        <v>5</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
         <v>6</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="4">
         <v>7</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>8</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>9</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="4">
         <v>10</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <v>20</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="4">
         <v>50</v>
       </c>
       <c r="S3">
@@ -1334,43 +2594,43 @@
       <c r="D4">
         <v>6937</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>2676</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="4">
         <v>5654</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="4">
         <v>7220</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="4">
         <v>9013</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>11972</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <v>13173</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="4">
         <v>16176</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="4">
         <v>17714</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="4">
         <v>19143</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="4">
         <v>19940</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <v>41966</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="4">
         <v>96001</v>
       </c>
       <c r="S4">
@@ -1399,43 +2659,43 @@
       <c r="D5">
         <v>8654</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>2760</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="4">
         <v>3782</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="4">
         <v>6231</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="4">
         <v>7861</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>10856</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <v>10902</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="4">
         <v>13628</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="4">
         <v>15988</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="4">
         <v>17433</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="4">
         <v>20901</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <v>35039</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="4">
         <v>90204</v>
       </c>
       <c r="S5">
@@ -1464,43 +2724,43 @@
       <c r="D6">
         <v>12133</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>2883</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="4">
         <v>4760</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="4">
         <v>6011</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="4">
         <v>8385</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>11248</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <v>11824</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="4">
         <v>15429</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <v>17257</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="4">
         <v>16827</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="4">
         <v>17781</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <v>37393</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="4">
         <v>89397</v>
       </c>
       <c r="S6">
@@ -1529,43 +2789,43 @@
       <c r="D7">
         <v>13735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>2519</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="4">
         <v>4213</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="4">
         <v>7247</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="4">
         <v>7500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>9817</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <v>10709</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="4">
         <v>12630</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="4">
         <v>15771</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="4">
         <v>16410</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="4">
         <v>17770</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="4">
         <v>35012</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="4">
         <v>87202</v>
       </c>
       <c r="S7">
@@ -1594,43 +2854,43 @@
       <c r="D8">
         <v>14130</v>
       </c>
-      <c r="F8" s="2">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
         <v>2407</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="4">
         <v>3658</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>5884</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="4">
         <v>7383</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>10051</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <v>11366</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="4">
         <v>13531</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="4">
         <v>14784</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="4">
         <v>17984</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="4">
         <v>27005</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <v>33910</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="4">
         <v>86452</v>
       </c>
       <c r="S8">
@@ -1659,43 +2919,43 @@
       <c r="D9">
         <v>16784</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>2398</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="4">
         <v>3969</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="4">
         <v>6029</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="4">
         <v>8144</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>9141</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <v>11714</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="4">
         <v>13058</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="4">
         <v>16825</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="4">
         <v>16196</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="4">
         <v>18525</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="4">
         <v>35762</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="4">
         <v>83834</v>
       </c>
       <c r="S9">
@@ -1724,43 +2984,43 @@
       <c r="D10">
         <v>21734</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>2670</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="4">
         <v>3902</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>5813</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="4">
         <v>8435</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>9036</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <v>11028</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="4">
         <v>13620</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10" s="4">
         <v>14409</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="4">
         <v>15909</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="4">
         <v>17473</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="4">
         <v>34254</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="4">
         <v>84872</v>
       </c>
       <c r="S10">
@@ -1789,43 +3049,43 @@
       <c r="D11">
         <v>20571</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>2474</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="4">
         <v>3851</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="4">
         <v>6012</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="4">
         <v>7194</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>9517</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <v>11401</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="4">
         <v>12448</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="4">
         <v>14784</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="4">
         <v>16364</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="4">
         <v>17920</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="4">
         <v>34106</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="4">
         <v>86780</v>
       </c>
       <c r="S11">
@@ -1854,46 +3114,46 @@
       <c r="D12">
         <v>40939</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>9</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>2584</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="4">
         <v>3575</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="4">
         <v>5667</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="4">
         <v>7843</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="4">
         <v>9758</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <v>12077</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="4">
         <v>12967</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="4">
         <v>15382</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="4">
         <v>16276</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="4">
         <v>18406</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="4">
         <v>34375</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="4">
         <v>86700</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="3" t="s">
         <v>43</v>
       </c>
       <c r="T12" t="s">
@@ -1919,46 +3179,46 @@
       <c r="D13">
         <v>94371</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>10</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>2369</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="4">
         <v>4501</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="4">
         <v>5478</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="4">
         <v>6885</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="4">
         <v>11677</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <v>11228</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="4">
         <v>14393</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="4">
         <v>15474</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="4">
         <v>16250</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="4">
         <v>19067</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="4">
         <v>34794</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="4">
         <v>90425</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="3" t="s">
         <v>100</v>
       </c>
       <c r="T13" t="s">
@@ -2013,7 +3273,7 @@
         <v>2883</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2026,22 +3286,22 @@
       <c r="D17">
         <v>2519</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -2054,44 +3314,44 @@
       <c r="D18">
         <v>2407</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>2</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="4">
         <v>3</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="4">
         <v>4</v>
       </c>
-      <c r="J18" s="2">
-        <v>5</v>
-      </c>
-      <c r="K18" s="2">
+      <c r="J18" s="4">
+        <v>5</v>
+      </c>
+      <c r="K18" s="4">
         <v>6</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="4">
         <v>7</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="4">
         <v>8</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="4">
         <v>9</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="4">
         <v>10</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="4">
         <v>20</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="Q18" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2104,44 +3364,44 @@
       <c r="D19">
         <v>2398</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>3865</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>7639</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="4">
         <v>11746</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="4">
         <v>15770</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="4">
         <v>19428</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="4">
         <v>23947</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <v>28173</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="4">
         <v>32198</v>
       </c>
-      <c r="N19" s="2">
+      <c r="N19" s="4">
         <v>35741</v>
       </c>
-      <c r="O19" s="2">
+      <c r="O19" s="4">
         <v>38947</v>
       </c>
-      <c r="P19" s="2">
+      <c r="P19" s="4">
         <v>99799</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="Q19" s="4">
         <v>198475</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -2155,7 +3415,7 @@
         <v>2670</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2169,7 +3429,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2183,7 +3443,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2197,7 +3457,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -2210,8 +3470,20 @@
       <c r="D24">
         <v>5654</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K24" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -2224,8 +3496,17 @@
       <c r="D25">
         <v>3782</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K25" s="4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2519</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3865</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2238,8 +3519,17 @@
       <c r="D26">
         <v>4760</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K26" s="4">
+        <v>2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>4213</v>
+      </c>
+      <c r="M26" s="4">
+        <v>7639</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -2264,8 +3554,17 @@
       <c r="I27">
         <v>41966</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K27" s="4">
+        <v>3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>7247</v>
+      </c>
+      <c r="M27" s="4">
+        <v>11746</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2290,8 +3589,17 @@
       <c r="I28">
         <v>35039</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K28" s="4">
+        <v>4</v>
+      </c>
+      <c r="L28" s="4">
+        <v>7500</v>
+      </c>
+      <c r="M28" s="4">
+        <v>15770</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -2316,8 +3624,17 @@
       <c r="I29">
         <v>37393</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K29" s="4">
+        <v>5</v>
+      </c>
+      <c r="L29" s="4">
+        <v>9817</v>
+      </c>
+      <c r="M29" s="4">
+        <v>19428</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2342,8 +3659,17 @@
       <c r="I30">
         <v>35012</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K30" s="4">
+        <v>6</v>
+      </c>
+      <c r="L30" s="4">
+        <v>10709</v>
+      </c>
+      <c r="M30" s="4">
+        <v>23947</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -2368,8 +3694,17 @@
       <c r="I31">
         <v>33910</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K31" s="4">
+        <v>7</v>
+      </c>
+      <c r="L31" s="4">
+        <v>12630</v>
+      </c>
+      <c r="M31" s="4">
+        <v>28173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2394,8 +3729,17 @@
       <c r="I32">
         <v>35762</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="4">
+        <v>8</v>
+      </c>
+      <c r="L32" s="4">
+        <v>15771</v>
+      </c>
+      <c r="M32" s="4">
+        <v>32198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -2420,8 +3764,17 @@
       <c r="I33">
         <v>34254</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="4">
+        <v>9</v>
+      </c>
+      <c r="L33" s="4">
+        <v>16410</v>
+      </c>
+      <c r="M33" s="4">
+        <v>35741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -2446,8 +3799,17 @@
       <c r="I34">
         <v>34106</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="4">
+        <v>10</v>
+      </c>
+      <c r="L34" s="4">
+        <v>17770</v>
+      </c>
+      <c r="M34" s="4">
+        <v>38947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -2472,8 +3834,17 @@
       <c r="I35">
         <v>34375</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="4">
+        <v>20</v>
+      </c>
+      <c r="L35" s="4">
+        <v>35012</v>
+      </c>
+      <c r="M35" s="4">
+        <v>99799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -2498,8 +3869,17 @@
       <c r="I36">
         <v>34794</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="4">
+        <v>50</v>
+      </c>
+      <c r="L36" s="4">
+        <v>87202</v>
+      </c>
+      <c r="M36" s="4">
+        <v>198475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -2525,7 +3905,7 @@
         <v>96001</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -2551,7 +3931,7 @@
         <v>90204</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -2577,7 +3957,7 @@
         <v>89397</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -2603,7 +3983,7 @@
         <v>87202</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -2629,7 +4009,7 @@
         <v>86452</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>81</v>
       </c>
@@ -2655,7 +4035,7 @@
         <v>83834</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>83</v>
       </c>
@@ -2681,7 +4061,7 @@
         <v>84872</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -2707,7 +4087,7 @@
         <v>86780</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -2733,7 +4113,7 @@
         <v>86700</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -2759,7 +4139,7 @@
         <v>90425</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +4153,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3703,5 +5083,6 @@
     <mergeCell ref="F17:Q17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>